--- a/doc/정리문서.xlsx
+++ b/doc/정리문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\GitHub\FileSystemWatcher\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E914AA-7C12-4245-BC89-14E1832A9BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D36625-AECF-40DE-B469-330D94973B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28BDA7B-5F24-412B-92D4-318D92A33E1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28BDA7B-5F24-412B-92D4-318D92A33E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -227,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +251,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B711FE6-81FD-4608-97B0-3E9F860C20D4}">
   <dimension ref="B3:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,10 +590,12 @@
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -589,7 +613,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
@@ -599,7 +623,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,11 +645,11 @@
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,11 +671,11 @@
       <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,11 +697,11 @@
       <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,11 +723,11 @@
       <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -725,11 +749,11 @@
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -751,11 +775,11 @@
       <c r="K10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
         <v>60889</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,11 +801,11 @@
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -803,11 +827,11 @@
       <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -833,34 +857,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -872,28 +896,28 @@
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -904,40 +928,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,11 +983,11 @@
       <c r="K25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,11 +1009,11 @@
       <c r="K26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1011,11 +1035,11 @@
       <c r="K27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,11 +1061,11 @@
       <c r="K28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1063,11 +1087,11 @@
       <c r="K29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,11 +1113,11 @@
       <c r="K30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="1">
+      <c r="L30" s="1">
         <v>60889</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,11 +1139,11 @@
       <c r="K31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1165,7 @@
       <c r="K32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1204,13 +1228,13 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1243,10 +1267,10 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -1410,6 +1434,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>